--- a/Resource/excel/2007-玩家-商城配置.xlsx
+++ b/Resource/excel/2007-玩家-商城配置.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="store" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <author>张鹏</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="G1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="H1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1">
+    <comment ref="J1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -206,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="2">
+    <comment ref="K1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -289,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="1">
+    <comment ref="G4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -383,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="1">
+    <comment ref="H4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="1">
+    <comment ref="J4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="2">
+    <comment ref="K4" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -451,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0">
+    <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -561,23 +566,18 @@
     <t>hero</t>
   </si>
   <si>
-    <t>[{"hero":{"id":"1"}}]</t>
-  </si>
-  <si>
     <t>money=[{"money":"90"}]</t>
+  </si>
+  <si>
+    <t>[{"hero":{"id":"3"}}]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,150 +598,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -752,8 +608,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -780,7 +642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799920651875362"/>
+        <fgColor theme="8" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,192 +654,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1000,251 +682,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1298,68 +738,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="0066FF99"/>
-      <color rgb="0002AE48"/>
-      <color rgb="0002AE60"/>
+      <color rgb="FF66FF99"/>
+      <color rgb="FF02AE48"/>
+      <color rgb="FF02AE60"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1617,19 +1013,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="8.375" customWidth="1"/>
@@ -1644,23 +1040,15 @@
     <col min="11" max="12" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:12">
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1698,7 +1086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:12">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -1736,7 +1124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="13.5" spans="1:12">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1774,7 +1162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" customHeight="1" spans="1:12">
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="13">
         <v>10001</v>
@@ -1786,13 +1174,13 @@
         <v>26</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="13">
         <v>1</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -1802,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="15"/>
@@ -1815,7 +1203,7 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -1828,7 +1216,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -1841,7 +1229,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1854,7 +1242,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
@@ -1867,7 +1255,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -1880,7 +1268,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -1893,7 +1281,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1906,7 +1294,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1919,7 +1307,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="15"/>
@@ -1932,7 +1320,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="15"/>
@@ -1945,7 +1333,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -1958,7 +1346,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1971,7 +1359,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1984,7 +1372,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1997,7 +1385,7 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -2010,7 +1398,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -2023,7 +1411,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -2036,7 +1424,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -2049,7 +1437,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -2062,7 +1450,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -2075,7 +1463,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -2088,7 +1476,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -2101,7 +1489,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -2114,7 +1502,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -2127,7 +1515,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -2140,7 +1528,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -2153,7 +1541,7 @@
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -2166,7 +1554,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -2179,7 +1567,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -2192,7 +1580,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -2205,7 +1593,7 @@
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -2218,7 +1606,7 @@
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
@@ -2231,7 +1619,7 @@
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -2244,7 +1632,7 @@
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -2257,7 +1645,7 @@
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -2270,7 +1658,7 @@
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -2283,7 +1671,7 @@
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -2296,7 +1684,7 @@
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
@@ -2309,7 +1697,7 @@
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -2322,7 +1710,7 @@
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -2335,7 +1723,7 @@
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -2348,7 +1736,7 @@
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -2361,7 +1749,7 @@
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -2374,7 +1762,7 @@
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -2387,7 +1775,7 @@
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
@@ -2400,7 +1788,7 @@
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -2413,7 +1801,7 @@
       <c r="K52" s="15"/>
       <c r="L52" s="15"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -2426,7 +1814,7 @@
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -2439,7 +1827,7 @@
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -2452,7 +1840,7 @@
       <c r="K55" s="15"/>
       <c r="L55" s="15"/>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -2465,7 +1853,7 @@
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -2478,7 +1866,7 @@
       <c r="K57" s="15"/>
       <c r="L57" s="15"/>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -2491,7 +1879,7 @@
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -2504,7 +1892,7 @@
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -2517,7 +1905,7 @@
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
     </row>
-    <row r="61" spans="2:12">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
@@ -2530,7 +1918,7 @@
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
     </row>
-    <row r="62" spans="2:12">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -2543,7 +1931,7 @@
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
     </row>
-    <row r="63" spans="2:12">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -2556,7 +1944,7 @@
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
     </row>
-    <row r="64" spans="2:12">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -2569,7 +1957,7 @@
       <c r="K64" s="15"/>
       <c r="L64" s="15"/>
     </row>
-    <row r="65" spans="2:12">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -2582,7 +1970,7 @@
       <c r="K65" s="15"/>
       <c r="L65" s="15"/>
     </row>
-    <row r="66" spans="2:12">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
@@ -2595,7 +1983,7 @@
       <c r="K66" s="15"/>
       <c r="L66" s="15"/>
     </row>
-    <row r="67" spans="2:12">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
@@ -2608,7 +1996,7 @@
       <c r="K67" s="15"/>
       <c r="L67" s="15"/>
     </row>
-    <row r="68" spans="2:12">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
@@ -2621,7 +2009,7 @@
       <c r="K68" s="15"/>
       <c r="L68" s="15"/>
     </row>
-    <row r="69" spans="2:12">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
@@ -2634,7 +2022,7 @@
       <c r="K69" s="15"/>
       <c r="L69" s="15"/>
     </row>
-    <row r="70" spans="2:12">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
@@ -2647,7 +2035,7 @@
       <c r="K70" s="15"/>
       <c r="L70" s="15"/>
     </row>
-    <row r="71" spans="2:12">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
@@ -2660,7 +2048,7 @@
       <c r="K71" s="15"/>
       <c r="L71" s="15"/>
     </row>
-    <row r="72" spans="2:12">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
@@ -2673,7 +2061,7 @@
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
     </row>
-    <row r="73" spans="2:12">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -2686,7 +2074,7 @@
       <c r="K73" s="15"/>
       <c r="L73" s="15"/>
     </row>
-    <row r="74" spans="2:12">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
@@ -2699,7 +2087,7 @@
       <c r="K74" s="15"/>
       <c r="L74" s="15"/>
     </row>
-    <row r="75" spans="2:12">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
@@ -2712,7 +2100,7 @@
       <c r="K75" s="15"/>
       <c r="L75" s="15"/>
     </row>
-    <row r="76" spans="2:12">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
@@ -2725,7 +2113,7 @@
       <c r="K76" s="15"/>
       <c r="L76" s="15"/>
     </row>
-    <row r="77" spans="2:12">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
@@ -2738,7 +2126,7 @@
       <c r="K77" s="15"/>
       <c r="L77" s="15"/>
     </row>
-    <row r="78" spans="2:12">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
@@ -2752,9 +2140,9 @@
       <c r="L78" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resource/excel/2007-玩家-商城配置.xlsx
+++ b/Resource/excel/2007-玩家-商城配置.xlsx
@@ -483,7 +483,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>#store</t>
   </si>
@@ -563,13 +563,39 @@
     <t>MaxOwnCount(int)</t>
   </si>
   <si>
+    <t>[{"hero":{"id":"3"}}]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>hero</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>foot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"effect":{"id":"3"}}]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"foot":{"id":"3"}}]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>money=[{"money":"90"}]</t>
-  </si>
-  <si>
-    <t>[{"hero":{"id":"3"}}]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>money=[{"money":"90"}]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>money=[{"money":"90"}]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1021,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1171,50 +1197,78 @@
         <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="F5" s="13">
         <v>1</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="B6" s="15">
+        <v>11001</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="L6" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="B7" s="15">
+        <v>12001</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="L7" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="15"/>
